--- a/mrs/src/main/resources/xlsx/template001.xlsx
+++ b/mrs/src/main/resources/xlsx/template001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_katagiri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sts\git\mrs\mrs\mrs\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>片桐 瑞樹</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="D3")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ヘッダー部</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportHeader.intValue}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportHeader.strValue}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportHeader.decimalValue}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportHeader.dateValue}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +93,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,16 +149,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>433407</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>172343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -114,7 +174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -127,8 +187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="238125"/>
-          <a:ext cx="5234007" cy="6981825"/>
+          <a:off x="8220075" y="142875"/>
+          <a:ext cx="1485900" cy="1982093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -139,16 +199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -163,8 +223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277100" y="752475"/>
-          <a:ext cx="2124075" cy="704850"/>
+          <a:off x="8686800" y="581024"/>
+          <a:ext cx="2124075" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst/>
@@ -499,15 +559,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" customHeight="1"/>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/mrs/src/main/resources/xlsx/template001.xlsx
+++ b/mrs/src/main/resources/xlsx/template001.xlsx
@@ -44,12 +44,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="D6")
+jx:each(items="reportDetails" var="reportDetail" lastCell="D6")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ヘッダー部</t>
     <rPh sb="4" eb="5">
@@ -71,6 +86,32 @@
   </si>
   <si>
     <t>${reportHeader.dateValue}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細部</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportDetail.detailNumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportDetail.detailCode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportDetail.detailAmount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${reportDetail.detailDate}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -124,8 +165,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,15 +604,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
@@ -589,8 +632,27 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mrs/src/main/resources/xlsx/template001.xlsx
+++ b/mrs/src/main/resources/xlsx/template001.xlsx
@@ -29,6 +29,20 @@
     <author>片桐 瑞樹</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="D9")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -54,8 +68,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:area(lastCell="D6")
-jx:each(items="reportDetails" var="reportDetail" lastCell="D6")</t>
+          <t>jx:each(items="reportDetails" var="reportDetail" lastCell="D6")</t>
         </r>
       </text>
     </comment>
@@ -64,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ヘッダー部</t>
     <rPh sb="4" eb="5">
@@ -112,6 +125,27 @@
   </si>
   <si>
     <t>${reportDetail.detailDate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計部</t>
+    <rPh sb="0" eb="3">
+      <t>ゴウケイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$[SUM(C6)]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -143,15 +177,33 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,17 +211,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,44 +812,70 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1"/>
+    <row r="1" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A1" s="15"/>
+    </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
